--- a/other2/thomas/CF_633C_SpySyndrome2/CF_633C_SpySyndrome2.xlsx
+++ b/other2/thomas/CF_633C_SpySyndrome2/CF_633C_SpySyndrome2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\CF_633C_SpySyndrome2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4F3E62-1B2E-4D7F-8EAE-50A5036B8658}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FDA85-E937-48ED-A842-EEE9CBCC5BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34400" windowHeight="17080" xr2:uid="{999C511A-DE90-41CB-A5AB-760C15AA7905}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="40">
   <si>
     <t>h</t>
   </si>
@@ -131,6 +131,54 @@
   </si>
   <si>
     <t>dp[i]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>there</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,15 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -332,6 +371,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,13 +408,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>138041</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>328540</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>162891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -417,13 +468,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>138041</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>328540</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>162891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -477,13 +528,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>141352</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>19876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>331851</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>154609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -537,13 +588,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>138041</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>19325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>328540</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>162891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -597,13 +648,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>121476</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>22087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>311975</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -657,13 +708,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>75094</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>14357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>265593</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>157923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -717,13 +768,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -777,13 +828,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -837,13 +888,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64601</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>255100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>22639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -897,13 +948,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -957,13 +1008,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64601</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>255100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>22639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1017,13 +1068,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76197</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>18221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266696</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>34235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1077,13 +1128,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1137,13 +1188,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>64601</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>255100</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>22639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1197,13 +1248,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76197</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>18221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266696</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>34235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1257,13 +1308,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>22086</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>138044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1311,6 +1362,2437 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80891</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271390</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="箭头: 下 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EE1BC89-2FCC-49CA-9833-3A56F273B10D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="880991" y="940075"/>
+          <a:ext cx="190499" cy="143566"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98863AEA-C20B-4D8D-BED3-4784204422B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="796926" y="701675"/>
+          <a:ext cx="295275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC20413-09C1-421E-973C-C49C1546C8C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="806451" y="1609725"/>
+          <a:ext cx="293687" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图形 40" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CEC8E96-630E-432C-8E2B-2D5BE9875BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="1666875"/>
+          <a:ext cx="218240" cy="227013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65016</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="箭头: 下 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC2A056-44D4-4849-8E21-65C66D43918B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="865116" y="1840187"/>
+          <a:ext cx="190499" cy="146741"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84066</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274565</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="箭头: 下 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D18A2E-B67C-4FC4-A9C6-88597A614F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1550916" y="2945087"/>
+          <a:ext cx="190499" cy="146741"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD08C219-E799-4D7B-8856-55BA9DEFAC79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1152525" y="2693988"/>
+          <a:ext cx="619125" cy="1587"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84718</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图形 50" descr="复选标记">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F374B349-8CB4-4DBC-B136-7ABE5BAFA92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="2822575"/>
+          <a:ext cx="164093" cy="160337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84066</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274565</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="箭头: 下 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF68419E-CEC2-464D-A23C-7BDBE9B44C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1220716" y="2941912"/>
+          <a:ext cx="190499" cy="146741"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645ADDC5-56D8-4FA0-A0D0-7D8DC9BAE5D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="819150" y="2697163"/>
+          <a:ext cx="619125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="164093" cy="160337"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图形 53" descr="复选标记">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470311EB-D50F-46F7-A575-D0D524D2C06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="2819400"/>
+          <a:ext cx="164093" cy="160337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>331788</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接连接符 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F06B555-C17D-418B-9320-2E047E348647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="798513" y="246063"/>
+          <a:ext cx="11112" cy="3859212"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>82478</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>272977</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="箭头: 下 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576E4C64-6621-4687-995A-064B5BE3FD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1549328" y="5127900"/>
+          <a:ext cx="190499" cy="146741"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B2B5A86-66FE-49E1-BE38-12C2C40FB427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1492251" y="4865688"/>
+          <a:ext cx="303212" cy="1587"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A84CAE9-FCAE-479C-AD7C-7F28B4758303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="4238625"/>
+          <a:ext cx="19050" cy="5253038"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图形 67" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EB4442-6BDD-428C-ACF1-27F4486D4055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1492250" y="5002213"/>
+          <a:ext cx="127000" cy="129030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>84064</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274563</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="箭头: 下 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B520BCA-214E-4A3F-B8BF-484957C93FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1884289" y="6201050"/>
+          <a:ext cx="190499" cy="175938"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FE3169-C2E5-4C90-85ED-2090B9D2A19C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1495426" y="5953125"/>
+          <a:ext cx="609599" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图形 70" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB356D97-AA72-4605-B39D-AAAAE15C9A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1804987" y="6078538"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72952</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263451</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="箭头: 下 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D503C9A-56F4-4426-BA53-3262D1BF8AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2206552" y="7278962"/>
+          <a:ext cx="190499" cy="182288"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直接箭头连接符 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C59191-46DF-4FA9-B35F-62694F287C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1492251" y="7034213"/>
+          <a:ext cx="917574" cy="3175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>131763</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图形 78" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5253326-F9C4-465F-A251-8DFAD6BA6A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2079625" y="7189788"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88827</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>30437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279326</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="箭头: 下 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F7078B-82EB-4047-8ECA-F7CAEAAEE2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2555802" y="8355287"/>
+          <a:ext cx="190499" cy="185463"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直接箭头连接符 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296C2A84-1439-40CC-8C25-4607BD2F92BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1495426" y="8124825"/>
+          <a:ext cx="1276349" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>141288</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="图形 83" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{115CB096-0A59-4C45-A1C7-68078FDF8BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2433638" y="8285163"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直接箭头连接符 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74997420-EAE8-4F97-A6BB-36E9859BEE52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1495426" y="9213851"/>
+          <a:ext cx="1752599" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="164093" cy="160337"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="图形 91" descr="复选标记">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EA37D3-8013-445A-9091-C1D0CD097D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="9324975"/>
+          <a:ext cx="164093" cy="160337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147564</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>338063</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="箭头: 下 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CA2E61-71AC-4019-8A91-43B07784E4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2947914" y="9428437"/>
+          <a:ext cx="190499" cy="191813"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446087</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直接箭头连接符 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D799F6-92F2-4277-9293-FED8B4DC4793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3246437" y="10291763"/>
+          <a:ext cx="358776" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53901</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>51074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="箭头: 下 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5CE355-D001-4384-A96E-432DF6821886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3320976" y="10547624"/>
+          <a:ext cx="190499" cy="191813"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="图形 99" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77958B39-60D0-47E1-99C0-8648D2220AEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292476" y="10407650"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449262</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直接箭头连接符 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E18CA0-3AF3-4DCC-A88E-6FFE061FB812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3249612" y="11553825"/>
+          <a:ext cx="679451" cy="7938"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>44724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276149</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="箭头: 下 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B6C29E-79ED-46EE-BC70-0A59F0BCBF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3686100" y="11808099"/>
+          <a:ext cx="190499" cy="180701"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446088</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直接箭头连接符 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A085EC-7904-4092-9906-BBE40B8228B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3246438" y="12644438"/>
+          <a:ext cx="982662" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>65012</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>255511</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="箭头: 下 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA435C1-6C46-4D61-8BA8-6206AC7355AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3998837" y="12878074"/>
+          <a:ext cx="190499" cy="180701"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309564</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="图形 107" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD34D806-4476-4C84-AAE8-E103BB0CDEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3576639" y="11698288"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284164</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图形 108" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F933E62-D5A0-4AB6-881E-BD9245D53519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3884614" y="12788901"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449263</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直接箭头连接符 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCC549F-8FA2-4EBA-986E-215D1D6D65F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3249613" y="13725525"/>
+          <a:ext cx="1336675" cy="7938"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87237</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>39961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>277736</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="箭头: 下 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A23AE08-F2C6-44A6-9189-1BEB3318C86C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4354437" y="13975036"/>
+          <a:ext cx="190499" cy="180701"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>327026</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="123825" cy="132205"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="图形 111" descr="关闭">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857BCED7-FB87-4E7B-B7F9-B445956A68F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4260851" y="13892214"/>
+          <a:ext cx="123825" cy="132205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>446089</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直接箭头连接符 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A81F6BC-1637-4F0E-9618-ECDECF16A3DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3246439" y="14820900"/>
+          <a:ext cx="1792286" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>145974</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>49486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>336473</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>49212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="箭头: 下 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95738306-4042-4308-B7B0-AA8A3F0C2405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4746549" y="15070411"/>
+          <a:ext cx="190499" cy="180701"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>173037</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="164093" cy="160337"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="图形 117" descr="复选标记">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D32912E-7045-4785-8153-F7C2EF213D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549775" y="15012987"/>
+          <a:ext cx="164093" cy="160337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11112</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直接连接符 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01EB808-A490-4B5D-95C0-26281D26564A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="9667875"/>
+          <a:ext cx="1587" cy="5497513"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1613,10 +4095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8867E-36F4-4470-B118-EFC0911389E7}">
-  <dimension ref="A2:N54"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1628,749 +4110,1070 @@
     <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
     <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="21" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="22" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I8" s="2">
         <v>7</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J8" s="2">
         <v>8</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K8" s="2">
         <v>9</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L8" s="2">
         <v>10</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M8" s="2">
         <v>11</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N8" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12" t="s">
+    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="10" t="s">
+      <c r="I14" s="2">
         <v>7</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="14" t="s">
+      <c r="J14" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="25" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="15" t="s">
+      <c r="K14" s="2">
         <v>9</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="L14" s="2">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2">
         <v>11</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="N14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="21"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B20" s="2">
         <v>0</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E20" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F20" s="2">
         <v>4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G20" s="2">
         <v>5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H20" s="2">
         <v>6</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I20" s="2">
         <v>7</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J20" s="2">
         <v>8</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K20" s="2">
         <v>9</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L20" s="2">
         <v>10</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M20" s="2">
         <v>11</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N20" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+    <row r="21" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="M21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="12" t="s">
+    <row r="22" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="25" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="21"/>
+    </row>
+    <row r="26" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="10" t="s">
+      <c r="I26" s="2">
         <v>7</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="14" t="s">
+      <c r="J26" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="11" t="s">
+      <c r="K26" s="2">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2">
         <v>10</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="M26" s="2">
+        <v>11</v>
+      </c>
+      <c r="N26" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2">
+        <v>10</v>
+      </c>
+      <c r="M32" s="2">
         <v>11</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="N32" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="21"/>
+    </row>
+    <row r="38" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2">
+        <v>7</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9</v>
+      </c>
+      <c r="L38" s="2">
+        <v>10</v>
+      </c>
+      <c r="M38" s="2">
         <v>11</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="N38" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="16"/>
+      <c r="L43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>6</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8</v>
+      </c>
+      <c r="K44" s="2">
+        <v>9</v>
+      </c>
+      <c r="L44" s="2">
+        <v>10</v>
+      </c>
+      <c r="M44" s="2">
         <v>11</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="N44" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="I45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>6</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="49" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="2">
+      <c r="I49" s="16"/>
+      <c r="J49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" s="16"/>
+      <c r="L49" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="2">
-        <v>9</v>
-      </c>
-      <c r="L18" s="2">
-        <v>10</v>
-      </c>
-      <c r="M18" s="2">
-        <v>11</v>
-      </c>
-      <c r="N18" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="G33" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>4</v>
-      </c>
-      <c r="G36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="E40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4</v>
-      </c>
-      <c r="G43" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="4"/>
-      <c r="C45" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C47" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="N49" s="21"/>
+    </row>
+    <row r="50" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -2392,17 +5195,38 @@
       <c r="G50" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="H50" s="2">
+        <v>6</v>
+      </c>
+      <c r="I50" s="2">
+        <v>7</v>
+      </c>
+      <c r="J50" s="2">
+        <v>8</v>
+      </c>
+      <c r="K50" s="2">
+        <v>9</v>
+      </c>
+      <c r="L50" s="2">
+        <v>10</v>
+      </c>
+      <c r="M50" s="2">
+        <v>11</v>
+      </c>
+      <c r="N50" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>2</v>
@@ -2410,51 +5234,1529 @@
       <c r="G51" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="H51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="55" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="L55" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N55" s="21"/>
+    </row>
+    <row r="56" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2">
+        <v>6</v>
+      </c>
+      <c r="I56" s="2">
+        <v>7</v>
+      </c>
+      <c r="J56" s="2">
+        <v>8</v>
+      </c>
+      <c r="K56" s="2">
+        <v>9</v>
+      </c>
+      <c r="L56" s="2">
+        <v>10</v>
+      </c>
+      <c r="M56" s="2">
         <v>11</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="N56" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="4"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+    </row>
+    <row r="62" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="21"/>
+    </row>
+    <row r="63" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>6</v>
+      </c>
+      <c r="I63" s="2">
+        <v>7</v>
+      </c>
+      <c r="J63" s="2">
+        <v>8</v>
+      </c>
+      <c r="K63" s="2">
+        <v>9</v>
+      </c>
+      <c r="L63" s="2">
+        <v>10</v>
+      </c>
+      <c r="M63" s="2">
+        <v>11</v>
+      </c>
+      <c r="N63" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+    </row>
+    <row r="68" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N68" s="21"/>
+    </row>
+    <row r="69" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>4</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+      <c r="I69" s="2">
+        <v>7</v>
+      </c>
+      <c r="J69" s="2">
+        <v>8</v>
+      </c>
+      <c r="K69" s="2">
+        <v>9</v>
+      </c>
+      <c r="L69" s="2">
+        <v>10</v>
+      </c>
+      <c r="M69" s="2">
+        <v>11</v>
+      </c>
+      <c r="N69" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="74" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="16"/>
+      <c r="J74" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N74" s="21"/>
+    </row>
+    <row r="75" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2">
+        <v>4</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>6</v>
+      </c>
+      <c r="I75" s="2">
+        <v>7</v>
+      </c>
+      <c r="J75" s="2">
+        <v>8</v>
+      </c>
+      <c r="K75" s="2">
+        <v>9</v>
+      </c>
+      <c r="L75" s="2">
+        <v>10</v>
+      </c>
+      <c r="M75" s="2">
+        <v>11</v>
+      </c>
+      <c r="N75" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="80" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" s="16"/>
+      <c r="L80" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="21"/>
+    </row>
+    <row r="81" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2">
+        <v>4</v>
+      </c>
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+      <c r="H81" s="2">
+        <v>6</v>
+      </c>
+      <c r="I81" s="2">
+        <v>7</v>
+      </c>
+      <c r="J81" s="2">
+        <v>8</v>
+      </c>
+      <c r="K81" s="2">
+        <v>9</v>
+      </c>
+      <c r="L81" s="2">
+        <v>10</v>
+      </c>
+      <c r="M81" s="2">
+        <v>11</v>
+      </c>
+      <c r="N81" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B86" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K86" s="16"/>
+      <c r="L86" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4</v>
+      </c>
+      <c r="G87" s="2">
+        <v>5</v>
+      </c>
+      <c r="H87" s="2">
+        <v>6</v>
+      </c>
+      <c r="I87" s="2">
+        <v>7</v>
+      </c>
+      <c r="J87" s="2">
+        <v>8</v>
+      </c>
+      <c r="K87" s="2">
+        <v>9</v>
+      </c>
+      <c r="L87" s="2">
+        <v>10</v>
+      </c>
+      <c r="M87" s="2">
+        <v>11</v>
+      </c>
+      <c r="N87" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B91" s="20"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="19"/>
+    </row>
+    <row r="94" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2">
+        <v>5</v>
+      </c>
+      <c r="H94" s="2">
+        <v>6</v>
+      </c>
+      <c r="I94" s="2">
+        <v>7</v>
+      </c>
+      <c r="J94" s="2">
+        <v>8</v>
+      </c>
+      <c r="K94" s="2">
+        <v>9</v>
+      </c>
+      <c r="L94" s="2">
+        <v>10</v>
+      </c>
+      <c r="M94" s="2">
+        <v>11</v>
+      </c>
+      <c r="N94" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M98" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N98" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+    </row>
+    <row r="101" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>4</v>
+      </c>
+      <c r="G101" s="2">
+        <v>5</v>
+      </c>
+      <c r="H101" s="2">
+        <v>6</v>
+      </c>
+      <c r="I101" s="2">
+        <v>7</v>
+      </c>
+      <c r="J101" s="2">
+        <v>8</v>
+      </c>
+      <c r="K101" s="2">
+        <v>9</v>
+      </c>
+      <c r="L101" s="2">
+        <v>10</v>
+      </c>
+      <c r="M101" s="2">
+        <v>11</v>
+      </c>
+      <c r="N101" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B105" s="20"/>
+      <c r="C105" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N105" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B106" s="20"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+    </row>
+    <row r="110" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B110" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="26"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="26"/>
+    </row>
+    <row r="111" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B111" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2">
+        <v>4</v>
+      </c>
+      <c r="G112" s="2">
+        <v>5</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B114" s="4"/>
+      <c r="C114" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="10" t="s">
+      <c r="E114" s="5"/>
+      <c r="F114" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G114" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C54" s="13" t="s">
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="G116" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3</v>
+      </c>
+      <c r="F119" s="2">
+        <v>4</v>
+      </c>
+      <c r="G119" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="E120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+      <c r="C121" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="D121" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="E123" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F123" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G123" s="14" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2">
+        <v>3</v>
+      </c>
+      <c r="F126" s="2">
+        <v>4</v>
+      </c>
+      <c r="G126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B128" s="4"/>
+      <c r="C128" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C130" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2">
+        <v>4</v>
+      </c>
+      <c r="G133" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B135" s="4"/>
+      <c r="C135" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C137" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
+  <mergeCells count="23">
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/other2/thomas/CF_633C_SpySyndrome2/CF_633C_SpySyndrome2.xlsx
+++ b/other2/thomas/CF_633C_SpySyndrome2/CF_633C_SpySyndrome2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\CF_633C_SpySyndrome2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6FDA85-E937-48ED-A842-EEE9CBCC5BAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CB66F6-3254-4CB6-9F6B-AC9F214852E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34400" windowHeight="17080" xr2:uid="{999C511A-DE90-41CB-A5AB-760C15AA7905}"/>
   </bookViews>
@@ -373,6 +373,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -381,9 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,15 +406,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>138041</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>19325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>328540</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>162891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -466,15 +466,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>138041</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>19325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>328540</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>162891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -526,15 +526,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>141352</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>19876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>331851</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>154609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -586,15 +586,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>138041</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>19325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>328540</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>162891</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -646,15 +646,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>121476</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>22087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>311975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -706,15 +706,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>75094</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>14357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>265593</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>157923</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -766,15 +766,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -826,15 +826,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -886,15 +886,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>64601</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>255100</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>22639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -946,15 +946,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1006,15 +1006,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>64601</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>255100</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>22639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1066,15 +1066,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76197</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>18221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>266696</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>34235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1126,15 +1126,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>83375</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>182768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>273874</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>13804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1186,15 +1186,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>64601</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>6625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>255100</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>22639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,15 +1246,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76197</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>18221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>266696</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>34235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1306,15 +1306,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>22086</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>138044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1366,15 +1366,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>80891</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>35200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>271390</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>178766</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1426,15 +1426,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>330201</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>292101</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1482,15 +1482,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1538,15 +1538,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>132515</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1591,15 +1591,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>65016</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>30437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>255515</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>177178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1651,15 +1651,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>84066</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>49487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>274565</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15253</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1711,15 +1711,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1767,15 +1767,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>84718</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>84137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1820,15 +1820,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>84066</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>49487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>274565</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>15253</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1880,15 +1880,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1936,9 +1936,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="164093" cy="160337"/>
@@ -1984,15 +1984,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>331788</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>65088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2040,15 +2040,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>82478</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>60600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>272977</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>26366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2100,15 +2100,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2156,15 +2156,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2212,15 +2212,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>63943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2265,15 +2265,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>84064</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>274563</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2325,15 +2325,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>163513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2381,9 +2381,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>106363</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -2429,15 +2429,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>72952</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>39962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>263451</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2489,15 +2489,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2545,9 +2545,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>131763</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -2593,15 +2593,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>88827</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>30437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>279326</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2653,15 +2653,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>163513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2709,9 +2709,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>141288</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -2757,15 +2757,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>165101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2813,9 +2813,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="164093" cy="160337"/>
@@ -2861,15 +2861,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>147564</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>17737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>338063</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2921,15 +2921,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>446087</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2977,15 +2977,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>53901</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>51074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>244400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3037,9 +3037,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>25401</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -3085,15 +3085,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>449262</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3141,15 +3141,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>85650</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>44724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>276149</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3201,15 +3201,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>446088</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>163513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3257,15 +3257,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>65012</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>28849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>255511</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3317,9 +3317,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>309564</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>115888</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -3365,9 +3365,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>284164</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>120651</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -3413,15 +3413,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>449263</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>160338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3469,15 +3469,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>87237</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>39961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>277736</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>39687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3529,9 +3529,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>327026</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>138114</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="123825" cy="132205"/>
@@ -3577,15 +3577,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>446089</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>163513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3633,15 +3633,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>145974</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>49486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>336473</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>49212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3693,9 +3693,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>173037</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="164093" cy="160337"/>
@@ -3741,15 +3741,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>11112</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>144463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4095,2668 +4095,2669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8867E-36F4-4470-B118-EFC0911389E7}">
-  <dimension ref="A1:N137"/>
+  <dimension ref="B2:O138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="4.4140625" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.4140625" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.4140625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="4.4140625" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.4140625" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+    <row r="2" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="17" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="18" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="19" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I4" s="2">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J4" s="2">
         <v>7</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K4" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L4" s="2">
         <v>9</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M4" s="2">
         <v>10</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N4" s="2">
         <v>11</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O4" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="27" t="s">
+    <row r="6" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="8" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="17" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="19" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I9" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J9" s="2">
         <v>7</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K9" s="2">
         <v>8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L9" s="2">
         <v>9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M9" s="2">
         <v>10</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N9" s="2">
         <v>11</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O9" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+    <row r="10" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="N10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="27" t="s">
+    <row r="11" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="14" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="17" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="18" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="19" t="s">
+      <c r="L14" s="16"/>
+      <c r="M14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="21"/>
-    </row>
-    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <v>3</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <v>4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I15" s="2">
         <v>6</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J15" s="2">
         <v>7</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K15" s="2">
         <v>8</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L15" s="2">
         <v>9</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M15" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N15" s="2">
         <v>11</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O15" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+    <row r="16" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="N16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
+    <row r="17" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="20" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="17" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H20" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="I20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="18" t="s">
+      <c r="J20" s="16"/>
+      <c r="K20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="19" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C21" s="2">
         <v>0</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F21" s="2">
         <v>3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G21" s="2">
         <v>4</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I21" s="2">
         <v>6</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J21" s="2">
         <v>7</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K21" s="2">
         <v>8</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L21" s="2">
         <v>9</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M21" s="2">
         <v>10</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N21" s="2">
         <v>11</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O21" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+    <row r="22" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" s="3" t="s">
+      <c r="N22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+    <row r="23" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="26" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="17" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="H26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="18" t="s">
+      <c r="J26" s="16"/>
+      <c r="K26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="19" t="s">
+      <c r="L26" s="16"/>
+      <c r="M26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="21"/>
-    </row>
-    <row r="26" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C27" s="2">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G27" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I27" s="2">
         <v>6</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J27" s="2">
         <v>7</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K27" s="2">
         <v>8</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L27" s="2">
         <v>9</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M27" s="2">
         <v>10</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N27" s="2">
         <v>11</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O27" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="H28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3" t="s">
+      <c r="N28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="13" t="s">
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="32" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="17" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="H32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="I32" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="18" t="s">
+      <c r="J32" s="16"/>
+      <c r="K32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="19" t="s">
+      <c r="L32" s="16"/>
+      <c r="M32" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F33" s="2">
         <v>3</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H33" s="2">
         <v>5</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I33" s="2">
         <v>6</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J33" s="2">
         <v>7</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K33" s="2">
         <v>8</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L33" s="2">
         <v>9</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M33" s="2">
         <v>10</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N33" s="2">
         <v>11</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O33" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+    <row r="34" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="F34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="H34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N33" s="3" t="s">
+      <c r="N34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="13" t="s">
+    <row r="35" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="24" t="s">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+    </row>
+    <row r="38" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="22"/>
+      <c r="C38" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="17" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="H38" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="I38" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="18" t="s">
+      <c r="J38" s="16"/>
+      <c r="K38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="19" t="s">
+      <c r="L38" s="16"/>
+      <c r="M38" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N37" s="21"/>
-    </row>
-    <row r="38" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
         <v>2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F39" s="2">
         <v>3</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G39" s="2">
         <v>4</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H39" s="2">
         <v>5</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I39" s="2">
         <v>6</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J39" s="2">
         <v>7</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K39" s="2">
         <v>8</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L39" s="2">
         <v>9</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M39" s="2">
         <v>10</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N39" s="2">
         <v>11</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O39" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+    <row r="40" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="H40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N39" s="3" t="s">
+      <c r="N40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="13" t="s">
+    <row r="41" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="44" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="22"/>
+      <c r="C44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="17" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="H44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="I44" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="18" t="s">
+      <c r="J44" s="16"/>
+      <c r="K44" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="16"/>
-      <c r="L43" s="19" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="21"/>
-    </row>
-    <row r="44" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C45" s="2">
         <v>0</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F45" s="2">
         <v>3</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G45" s="2">
         <v>4</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H45" s="2">
         <v>5</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I45" s="2">
         <v>6</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J45" s="2">
         <v>7</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K45" s="2">
         <v>8</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L45" s="2">
         <v>9</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M45" s="2">
         <v>10</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N45" s="2">
         <v>11</v>
       </c>
-      <c r="N44" s="2">
+      <c r="O45" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+    <row r="46" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N45" s="3" t="s">
+      <c r="N46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B46" s="4"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="13" t="s">
+    <row r="47" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C47" s="4"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="49" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24" t="s">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="50" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="17" t="s">
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="H50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="I50" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="18" t="s">
+      <c r="J50" s="16"/>
+      <c r="K50" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="19" t="s">
+      <c r="L50" s="16"/>
+      <c r="M50" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="21"/>
-    </row>
-    <row r="50" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C51" s="2">
         <v>0</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F51" s="2">
         <v>3</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G51" s="2">
         <v>4</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H51" s="2">
         <v>5</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I51" s="2">
         <v>6</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J51" s="2">
         <v>7</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K51" s="2">
         <v>8</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L51" s="2">
         <v>9</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M51" s="2">
         <v>10</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N51" s="2">
         <v>11</v>
       </c>
-      <c r="N50" s="2">
+      <c r="O51" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+    <row r="52" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="F52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N51" s="3" t="s">
+      <c r="N52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B52" s="4"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="13" t="s">
+    <row r="53" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C53" s="4"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="55" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="24" t="s">
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="56" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="22"/>
+      <c r="C56" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="17" t="s">
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="H56" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="I56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="18" t="s">
+      <c r="J56" s="16"/>
+      <c r="K56" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="19" t="s">
+      <c r="L56" s="16"/>
+      <c r="M56" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="21"/>
-    </row>
-    <row r="56" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="2">
+      <c r="C57" s="2">
         <v>0</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
         <v>2</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F57" s="2">
         <v>3</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G57" s="2">
         <v>4</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H57" s="2">
         <v>5</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I57" s="2">
         <v>6</v>
       </c>
-      <c r="I56" s="2">
+      <c r="J57" s="2">
         <v>7</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K57" s="2">
         <v>8</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L57" s="2">
         <v>9</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M57" s="2">
         <v>10</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N57" s="2">
         <v>11</v>
       </c>
-      <c r="N56" s="2">
+      <c r="O57" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+    <row r="58" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="F58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N57" s="3" t="s">
+      <c r="N58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B58" s="4"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="13" t="s">
+    <row r="59" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C59" s="4"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="10" t="s">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="K59" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-    </row>
-    <row r="62" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="24" t="s">
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="63" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="22"/>
+      <c r="C63" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="17" t="s">
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="H63" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="I63" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="18" t="s">
+      <c r="J63" s="16"/>
+      <c r="K63" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="19" t="s">
+      <c r="L63" s="16"/>
+      <c r="M63" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="21"/>
-    </row>
-    <row r="63" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="2">
+      <c r="C64" s="2">
         <v>0</v>
       </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
         <v>2</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F64" s="2">
         <v>3</v>
       </c>
-      <c r="F63" s="2">
+      <c r="G64" s="2">
         <v>4</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H64" s="2">
         <v>5</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I64" s="2">
         <v>6</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J64" s="2">
         <v>7</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K64" s="2">
         <v>8</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L64" s="2">
         <v>9</v>
       </c>
-      <c r="L63" s="2">
+      <c r="M64" s="2">
         <v>10</v>
       </c>
-      <c r="M63" s="2">
+      <c r="N64" s="2">
         <v>11</v>
       </c>
-      <c r="N63" s="2">
+      <c r="O64" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
+    <row r="65" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="F65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="H65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="L65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3" t="s">
+      <c r="N65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B65" s="4"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="13" t="s">
+    <row r="66" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C66" s="4"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="10" t="s">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5" t="s">
+      <c r="K66" s="5"/>
+      <c r="L66" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-    </row>
-    <row r="68" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="24" t="s">
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="69" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="22"/>
+      <c r="C69" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="17" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="H69" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="I69" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="18" t="s">
+      <c r="J69" s="16"/>
+      <c r="K69" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="19" t="s">
+      <c r="L69" s="16"/>
+      <c r="M69" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N68" s="21"/>
-    </row>
-    <row r="69" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="2">
+      <c r="C70" s="2">
         <v>0</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2">
         <v>2</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F70" s="2">
         <v>3</v>
       </c>
-      <c r="F69" s="2">
+      <c r="G70" s="2">
         <v>4</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H70" s="2">
         <v>5</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I70" s="2">
         <v>6</v>
       </c>
-      <c r="I69" s="2">
+      <c r="J70" s="2">
         <v>7</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K70" s="2">
         <v>8</v>
       </c>
-      <c r="K69" s="2">
+      <c r="L70" s="2">
         <v>9</v>
       </c>
-      <c r="L69" s="2">
+      <c r="M70" s="2">
         <v>10</v>
       </c>
-      <c r="M69" s="2">
+      <c r="N70" s="2">
         <v>11</v>
       </c>
-      <c r="N69" s="2">
+      <c r="O70" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+    <row r="71" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="F71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3" t="s">
+      <c r="H71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="M71" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N70" s="3" t="s">
+      <c r="N71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B71" s="4"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="13" t="s">
+    <row r="72" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C72" s="4"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="10" t="s">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5" t="s">
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-    </row>
-    <row r="74" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="24" t="s">
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="75" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="22"/>
+      <c r="C75" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="17" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="H75" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="I75" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="18" t="s">
+      <c r="J75" s="16"/>
+      <c r="K75" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="19" t="s">
+      <c r="L75" s="16"/>
+      <c r="M75" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N74" s="21"/>
-    </row>
-    <row r="75" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="2">
+      <c r="C76" s="2">
         <v>0</v>
       </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
         <v>2</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F76" s="2">
         <v>3</v>
       </c>
-      <c r="F75" s="2">
+      <c r="G76" s="2">
         <v>4</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H76" s="2">
         <v>5</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I76" s="2">
         <v>6</v>
       </c>
-      <c r="I75" s="2">
+      <c r="J76" s="2">
         <v>7</v>
       </c>
-      <c r="J75" s="2">
+      <c r="K76" s="2">
         <v>8</v>
       </c>
-      <c r="K75" s="2">
+      <c r="L76" s="2">
         <v>9</v>
       </c>
-      <c r="L75" s="2">
+      <c r="M76" s="2">
         <v>10</v>
       </c>
-      <c r="M75" s="2">
+      <c r="N76" s="2">
         <v>11</v>
       </c>
-      <c r="N75" s="2">
+      <c r="O76" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
+    <row r="77" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="F77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="H77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="K77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="L77" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N76" s="3" t="s">
+      <c r="N77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B77" s="4"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="13" t="s">
+    <row r="78" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C78" s="4"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="10" t="s">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5" t="s">
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="5"/>
-    </row>
-    <row r="80" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="24" t="s">
+      <c r="O78" s="5"/>
+    </row>
+    <row r="81" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="22"/>
+      <c r="C81" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="17" t="s">
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="17" t="s">
+      <c r="H81" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="I81" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="18" t="s">
+      <c r="J81" s="16"/>
+      <c r="K81" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K80" s="16"/>
-      <c r="L80" s="19" t="s">
+      <c r="L81" s="16"/>
+      <c r="M81" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N80" s="21"/>
-    </row>
-    <row r="81" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="O81" s="21"/>
+    </row>
+    <row r="82" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="2">
+      <c r="C82" s="2">
         <v>0</v>
       </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
         <v>2</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F82" s="2">
         <v>3</v>
       </c>
-      <c r="F81" s="2">
+      <c r="G82" s="2">
         <v>4</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H82" s="2">
         <v>5</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I82" s="2">
         <v>6</v>
       </c>
-      <c r="I81" s="2">
+      <c r="J82" s="2">
         <v>7</v>
       </c>
-      <c r="J81" s="2">
+      <c r="K82" s="2">
         <v>8</v>
       </c>
-      <c r="K81" s="2">
+      <c r="L82" s="2">
         <v>9</v>
       </c>
-      <c r="L81" s="2">
+      <c r="M82" s="2">
         <v>10</v>
       </c>
-      <c r="M81" s="2">
+      <c r="N82" s="2">
         <v>11</v>
       </c>
-      <c r="N81" s="2">
+      <c r="O82" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
+    <row r="83" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="F83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H82" s="3" t="s">
+      <c r="H83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N82" s="3" t="s">
+      <c r="N83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B83" s="4"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="13" t="s">
+    <row r="84" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C84" s="4"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="10" t="s">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="14" t="s">
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B86" s="24" t="s">
+    <row r="87" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C87" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="17" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="H87" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="I87" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I86" s="16"/>
-      <c r="J86" s="18" t="s">
+      <c r="J87" s="16"/>
+      <c r="K87" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="19" t="s">
+      <c r="L87" s="16"/>
+      <c r="M87" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="2">
+      <c r="C88" s="2">
         <v>0</v>
       </c>
-      <c r="C87" s="2">
-        <v>1</v>
-      </c>
-      <c r="D87" s="2">
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2">
         <v>2</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F88" s="2">
         <v>3</v>
       </c>
-      <c r="F87" s="2">
+      <c r="G88" s="2">
         <v>4</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H88" s="2">
         <v>5</v>
       </c>
-      <c r="H87" s="2">
+      <c r="I88" s="2">
         <v>6</v>
       </c>
-      <c r="I87" s="2">
+      <c r="J88" s="2">
         <v>7</v>
       </c>
-      <c r="J87" s="2">
+      <c r="K88" s="2">
         <v>8</v>
       </c>
-      <c r="K87" s="2">
+      <c r="L88" s="2">
         <v>9</v>
       </c>
-      <c r="L87" s="2">
+      <c r="M88" s="2">
         <v>10</v>
       </c>
-      <c r="M87" s="2">
+      <c r="N88" s="2">
         <v>11</v>
       </c>
-      <c r="N87" s="2">
+      <c r="O88" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
+    <row r="89" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="3" t="s">
+      <c r="F89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H88" s="3" t="s">
+      <c r="H89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K88" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L88" s="3" t="s">
+      <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N88" s="3" t="s">
+      <c r="N89" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="12" t="s">
+    <row r="90" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C90" s="4"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="10" t="s">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="14" t="s">
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B91" s="20"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="15" t="s">
+    <row r="92" spans="2:15" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K91" s="15" t="s">
+      <c r="L92" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L91" s="15" t="s">
+      <c r="M92" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M91" s="15" t="s">
+      <c r="N92" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="O92" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-    </row>
-    <row r="93" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="19"/>
-    </row>
-    <row r="94" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="93" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+    </row>
+    <row r="94" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="19"/>
+    </row>
+    <row r="95" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="2">
+      <c r="C95" s="2">
         <v>0</v>
       </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2">
         <v>2</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F95" s="2">
         <v>3</v>
       </c>
-      <c r="F94" s="2">
+      <c r="G95" s="2">
         <v>4</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H95" s="2">
         <v>5</v>
       </c>
-      <c r="H94" s="2">
+      <c r="I95" s="2">
         <v>6</v>
       </c>
-      <c r="I94" s="2">
+      <c r="J95" s="2">
         <v>7</v>
       </c>
-      <c r="J94" s="2">
+      <c r="K95" s="2">
         <v>8</v>
       </c>
-      <c r="K94" s="2">
+      <c r="L95" s="2">
         <v>9</v>
       </c>
-      <c r="L94" s="2">
+      <c r="M95" s="2">
         <v>10</v>
       </c>
-      <c r="M94" s="2">
+      <c r="N95" s="2">
         <v>11</v>
       </c>
-      <c r="N94" s="2">
+      <c r="O95" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3" t="s">
+    <row r="96" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C96" s="3"/>
+      <c r="D96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3" t="s">
+      <c r="F96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H95" s="3" t="s">
+      <c r="H96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="K96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N95" s="3" t="s">
+      <c r="N96" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B96" s="4"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="12" t="s">
+    <row r="97" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C97" s="4"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="10" t="s">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="14" t="s">
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B98" s="20"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="11" t="s">
+    <row r="99" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="G99" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="H99" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="I99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="J99" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J98" s="15" t="s">
+      <c r="K99" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="L99" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L98" s="15" t="s">
+      <c r="M99" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M98" s="15" t="s">
+      <c r="N99" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N98" s="15" t="s">
+      <c r="O99" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-    </row>
-    <row r="101" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="100" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+    </row>
+    <row r="102" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="2">
+      <c r="C102" s="2">
         <v>0</v>
       </c>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2">
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2">
         <v>2</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F102" s="2">
         <v>3</v>
       </c>
-      <c r="F101" s="2">
+      <c r="G102" s="2">
         <v>4</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H102" s="2">
         <v>5</v>
       </c>
-      <c r="H101" s="2">
+      <c r="I102" s="2">
         <v>6</v>
       </c>
-      <c r="I101" s="2">
+      <c r="J102" s="2">
         <v>7</v>
       </c>
-      <c r="J101" s="2">
+      <c r="K102" s="2">
         <v>8</v>
       </c>
-      <c r="K101" s="2">
+      <c r="L102" s="2">
         <v>9</v>
       </c>
-      <c r="L101" s="2">
+      <c r="M102" s="2">
         <v>10</v>
       </c>
-      <c r="M101" s="2">
+      <c r="N102" s="2">
         <v>11</v>
       </c>
-      <c r="N101" s="2">
+      <c r="O102" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="s">
+    <row r="103" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="E103" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="F103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H102" s="3" t="s">
+      <c r="H103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="J103" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="K103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L103" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M103" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N102" s="3" t="s">
+      <c r="N103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="4"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="12" t="s">
+    <row r="104" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C104" s="4"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="10" t="s">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="14" t="s">
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B105" s="20"/>
-      <c r="C105" s="13" t="s">
+    <row r="106" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C106" s="20"/>
+      <c r="D106" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="E106" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="F106" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="G106" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="H106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H105" s="11" t="s">
+      <c r="I106" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I105" s="11" t="s">
+      <c r="J106" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J105" s="15" t="s">
+      <c r="K106" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K105" s="15" t="s">
+      <c r="L106" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L105" s="15" t="s">
+      <c r="M106" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="15" t="s">
+      <c r="N106" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N105" s="15" t="s">
+      <c r="O106" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B106" s="20"/>
-      <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-    </row>
-    <row r="110" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B110" s="25" t="s">
+    <row r="107" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+    </row>
+    <row r="111" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C111" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="26" t="s">
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
-    </row>
-    <row r="111" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B111" s="24" t="s">
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+    </row>
+    <row r="112" spans="2:15" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C112" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="17" t="s">
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G111" s="17" t="s">
+      <c r="H112" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H111" s="18" t="s">
+      <c r="I112" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I111" s="18" t="s">
+      <c r="J112" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="2">
+      <c r="C113" s="2">
         <v>0</v>
       </c>
-      <c r="C112" s="2">
-        <v>1</v>
-      </c>
-      <c r="D112" s="2">
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2">
         <v>2</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F113" s="2">
         <v>3</v>
       </c>
-      <c r="F112" s="2">
+      <c r="G113" s="2">
         <v>4</v>
       </c>
-      <c r="G112" s="2">
+      <c r="H113" s="2">
         <v>5</v>
       </c>
-      <c r="H112" s="7"/>
-      <c r="I112" s="8"/>
-    </row>
-    <row r="113" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3" t="s">
+      <c r="I113" s="7"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="E114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-    </row>
-    <row r="114" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B114" s="4"/>
-      <c r="C114" s="23" t="s">
+      <c r="H114" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C115" s="4"/>
+      <c r="D115" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="E115" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="10" t="s">
+      <c r="F115" s="5"/>
+      <c r="G115" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="H115" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-    </row>
-    <row r="116" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="G116" s="14" t="s">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+    </row>
+    <row r="117" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="H117" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+    <row r="120" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="2">
+      <c r="C120" s="2">
         <v>0</v>
       </c>
-      <c r="C119" s="2">
-        <v>1</v>
-      </c>
-      <c r="D119" s="2">
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="2">
         <v>2</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F120" s="2">
         <v>3</v>
       </c>
-      <c r="F119" s="2">
+      <c r="G120" s="2">
         <v>4</v>
       </c>
-      <c r="G119" s="2">
+      <c r="H120" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3" t="s">
+    <row r="121" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="F121" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
-      <c r="C121" s="23" t="s">
+      <c r="H121" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C122" s="4"/>
+      <c r="D122" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="E122" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="10" t="s">
+      <c r="F122" s="5"/>
+      <c r="G122" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="H122" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="E123" s="10" t="s">
+    <row r="124" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="F124" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="G124" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="H124" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="2">
+      <c r="C127" s="2">
         <v>0</v>
       </c>
-      <c r="C126" s="2">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2">
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2">
         <v>2</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F127" s="2">
         <v>3</v>
       </c>
-      <c r="F126" s="2">
+      <c r="G127" s="2">
         <v>4</v>
       </c>
-      <c r="G126" s="2">
+      <c r="H127" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B127" s="3"/>
-      <c r="C127" s="3" t="s">
+    <row r="128" spans="2:10" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E128" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B128" s="4"/>
-      <c r="C128" s="23" t="s">
+      <c r="H128" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C129" s="4"/>
+      <c r="D129" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="E129" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E128" s="5"/>
-      <c r="F128" s="10" t="s">
+      <c r="F129" s="5"/>
+      <c r="G129" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="H129" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C130" s="12" t="s">
+    <row r="131" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D131" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="E131" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="F131" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="G131" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="H131" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B133" s="2">
+      <c r="C134" s="2">
         <v>0</v>
       </c>
-      <c r="C133" s="2">
-        <v>1</v>
-      </c>
-      <c r="D133" s="2">
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2">
         <v>2</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F134" s="2">
         <v>3</v>
       </c>
-      <c r="F133" s="2">
+      <c r="G134" s="2">
         <v>4</v>
       </c>
-      <c r="G133" s="2">
+      <c r="H134" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3" t="s">
+    <row r="135" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="E135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="B135" s="4"/>
-      <c r="C135" s="23" t="s">
+      <c r="H135" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C136" s="4"/>
+      <c r="D136" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="12" t="s">
+      <c r="E136" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="10" t="s">
+      <c r="F136" s="5"/>
+      <c r="G136" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="H136" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C137" s="13" t="s">
+    <row r="138" spans="2:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D138" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="E138" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="F138" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="G138" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G137" s="15" t="s">
+      <c r="H138" s="15" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C63:F63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
